--- a/biology/Médecine/Colposcopie/Colposcopie.xlsx
+++ b/biology/Médecine/Colposcopie/Colposcopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La colposcopie (du grec ancien kolpos : "cavité, utérus, vagin" et skopos "regarder") est l'examen du col utérin et du vagin au moyen d'une loupe binoculaire qui grossit de vingt à cinquante fois, selon les appareils et les optiques choisies pour cet examen médical.
 Elle s'intègre surtout dans la stratégie du dépistage et du traitement des dysplasies du col utérin, des lésions pré-cancéreuses dues au Papillomavirus humain, avec d'autres examens comme le frottis et le test biologique de recherche des Papillomavirus cancérigènes ("test HPV").
@@ -512,7 +524,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La colposcopie est réalisée dans les indications suivantes :
 Découverte à l'œil nu d'une anomalie au niveau des muqueuses du col de l'utérus ou du vagin.
@@ -546,7 +560,9 @@
           <t>Technique de la colposcopie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La colposcopie est un examen du col de l'utérus et du vagin par l'intermédiaire d'un colposcope (qui est un appareil optique grossissant) pour rechercher et repérer sur ces organes des lésions inflammatoires ou précancéreuses ou cancéreuses et ensuite pratiquer des biopsies guidées de ces lésions.
 Pour que l'examen colposcopique du col utérin soit réalisé correctement il faut que le médecin puisse étudier la zone de la jonction entre le revêtement de la partie extérieure du col utérin (l'exocol) et le revêtement du canal cervical (endocol) ; cette zone de jonction est facilement visible dans la période du cycle menstruel qui correspond aux quelques jours qui précédent l'ovulation.
@@ -590,7 +606,9 @@
           <t>Résultats de la colposcopie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lésions intra épithéliales de bas grade sont des anomalies épithéliales qui comprennent :
 les infections à HPV : Abréviation de Human Papilloma Virus. Les papillomavirus appartiennent à une famille de virus à ADN. On en dénombre une soixantaine de variétés. Ils sont impliqués dans la genèse du cancer du col. Les HPV de type 6 et 11 prédominent dans les condylomes et les HPV de type 16 et 18 (HPV oncogènes) prédominent dans les dysplasies modérées (CIN II) et sévères (CIN III).
@@ -633,7 +651,9 @@
           <t>Est-ce douloureux ?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet examen n'est pas plus désagréable qu'un simple frottis du col de l'utérus. Il est indolore, mais certaines personnes peuvent ressentir un picotement ou une légère sensation de brûlure lors de l'application d'acide acétique ou de Lugol.
 </t>
